--- a/data_impute_project/combinations/marine_mammals/combination_3_ABCDF.xlsx
+++ b/data_impute_project/combinations/marine_mammals/combination_3_ABCDF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,163 +436,208 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hb 20</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-19.88</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>13.81</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-16.27</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-9.91</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>12.94</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>S 17</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>-14.51</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>12.93</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-9.76</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-8.859999999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>12.56</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hb 30</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-15.98</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>11.21</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-9.35</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-7.54</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>21.15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>KHb 25</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-16.67</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>12.46</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-11.13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-7.99</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>16.22</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hb 25</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-16.96</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-10.8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-9.119999999999999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>15.13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>KHb 30</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-17.01</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>11.99</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-9.49</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-9.619999999999999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>15.49</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KHb 31</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-13.5</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>14.52</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-9.57</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-13.51</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>14.81</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KS 76</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>-14</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>12.32</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-8.699999999999999</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-6.33</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>14.36</v>
       </c>
     </row>
